--- a/methods_df.xlsx
+++ b/methods_df.xlsx
@@ -740,6 +740,9 @@
       <c r="F2" t="s">
         <v>81</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -783,6 +786,9 @@
       <c r="F4" t="s">
         <v>83</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -803,6 +809,9 @@
       <c r="F5" t="s">
         <v>84</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
@@ -823,6 +832,9 @@
       <c r="F6" t="s">
         <v>85</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
@@ -843,6 +855,9 @@
       <c r="F7" t="s">
         <v>86</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
@@ -863,6 +878,9 @@
       <c r="F8" t="s">
         <v>87</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
@@ -883,6 +901,9 @@
       <c r="F9" t="s">
         <v>88</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
@@ -903,6 +924,9 @@
       <c r="F10" t="s">
         <v>89</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
@@ -923,6 +947,9 @@
       <c r="F11" t="s">
         <v>90</v>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
@@ -943,6 +970,9 @@
       <c r="F12" t="s">
         <v>91</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
@@ -963,6 +993,9 @@
       <c r="F13" t="s">
         <v>92</v>
       </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
@@ -983,6 +1016,9 @@
       <c r="F14" t="s">
         <v>93</v>
       </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
@@ -1026,8 +1062,11 @@
       <c r="F16" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1046,8 +1085,11 @@
       <c r="F17" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1066,8 +1108,11 @@
       <c r="F18" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1086,8 +1131,11 @@
       <c r="F19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1106,8 +1154,11 @@
       <c r="F20" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1126,8 +1177,11 @@
       <c r="F21" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1146,8 +1200,11 @@
       <c r="F22" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1166,8 +1223,11 @@
       <c r="F23" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1186,8 +1246,11 @@
       <c r="F24" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1206,8 +1269,11 @@
       <c r="F25" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1225,6 +1291,9 @@
       </c>
       <c r="F26" t="s">
         <v>105</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/methods_df.xlsx
+++ b/methods_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -22,16 +22,49 @@
     <t>name</t>
   </si>
   <si>
-    <t>food_pairing_0</t>
-  </si>
-  <si>
-    <t>food_pairing_1</t>
-  </si>
-  <si>
-    <t>food_pairing_2</t>
-  </si>
-  <si>
-    <t>food_pairing_3</t>
+    <t>method_mash_temp_0_temp_value</t>
+  </si>
+  <si>
+    <t>method_mash_temp_0_temp_unit</t>
+  </si>
+  <si>
+    <t>method_mash_temp_0_duration</t>
+  </si>
+  <si>
+    <t>method_fermentation_temp_value</t>
+  </si>
+  <si>
+    <t>method_fermentation_temp_unit</t>
+  </si>
+  <si>
+    <t>method_twist</t>
+  </si>
+  <si>
+    <t>method_mash_temp_1_temp_value</t>
+  </si>
+  <si>
+    <t>method_mash_temp_1_temp_unit</t>
+  </si>
+  <si>
+    <t>method_mash_temp_1_duration</t>
+  </si>
+  <si>
+    <t>method_mash_temp_2_temp_value</t>
+  </si>
+  <si>
+    <t>method_mash_temp_2_temp_unit</t>
+  </si>
+  <si>
+    <t>method_mash_temp_2_duration</t>
+  </si>
+  <si>
+    <t>method_mash_temp_3_temp_value</t>
+  </si>
+  <si>
+    <t>method_mash_temp_3_temp_unit</t>
+  </si>
+  <si>
+    <t>method_mash_temp_3_duration</t>
   </si>
   <si>
     <t>Buzz</t>
@@ -109,235 +142,43 @@
     <t>Bad Pixie</t>
   </si>
   <si>
-    <t>Spicy chicken tikka masala</t>
-  </si>
-  <si>
-    <t>Fresh crab with lemon</t>
-  </si>
-  <si>
-    <t>Smoked chicken wings</t>
-  </si>
-  <si>
-    <t>Spicy crab cakes</t>
-  </si>
-  <si>
-    <t>Vietnamese squid salad</t>
-  </si>
-  <si>
-    <t>Mussels with a garlic and herb sauce</t>
-  </si>
-  <si>
-    <t>Tandoori lamb with pomegranate</t>
-  </si>
-  <si>
-    <t>Fried crab cakes with avocado salsa</t>
-  </si>
-  <si>
-    <t>Kedgeree</t>
-  </si>
-  <si>
-    <t>Warm blackberry pie</t>
-  </si>
-  <si>
-    <t>Roasted garlic and chilli infused camembert cheese</t>
-  </si>
-  <si>
-    <t>King prawn kebabs</t>
-  </si>
-  <si>
-    <t>Vegetable egg scramble</t>
-  </si>
-  <si>
-    <t>Pastrami</t>
-  </si>
-  <si>
-    <t>Coriander &amp; chilli crab cakes</t>
-  </si>
-  <si>
-    <t>Blue cheese beef burger</t>
-  </si>
-  <si>
-    <t>Coffee dusted venison loin</t>
-  </si>
-  <si>
-    <t>Spicy chicken skewers</t>
-  </si>
-  <si>
-    <t>Fårikål (mutton stew) with a spicy twist</t>
-  </si>
-  <si>
-    <t>Grilled portabello mushroom burger</t>
-  </si>
-  <si>
-    <t>Citrus salad with balsamic dressing</t>
-  </si>
-  <si>
-    <t>Stilton on gingerbread biscuits</t>
-  </si>
-  <si>
-    <t>Oysters</t>
-  </si>
-  <si>
-    <t>Roasted wood pigeon with black pudding</t>
-  </si>
-  <si>
-    <t>Poached sole fillet with capers</t>
-  </si>
-  <si>
-    <t>Grilled chicken quesadilla</t>
-  </si>
-  <si>
-    <t>Garlic butter dipping sauce</t>
-  </si>
-  <si>
-    <t>Miso ramen</t>
-  </si>
-  <si>
-    <t>Spicy cucumber and carrot Thai salad</t>
-  </si>
-  <si>
-    <t>Chargrilled corn on the cob with paprika butter</t>
-  </si>
-  <si>
-    <t>Crab melt sandwich</t>
-  </si>
-  <si>
-    <t>Beef Wellington with a red wine jus</t>
-  </si>
-  <si>
-    <t>Spicy shredded pork roll with hot dipping sauce</t>
-  </si>
-  <si>
-    <t>Scotch broth with sourdough bread</t>
-  </si>
-  <si>
-    <t>Vinegar doused fish and chips</t>
-  </si>
-  <si>
-    <t>Korean style chicken wings</t>
-  </si>
-  <si>
-    <t>Halibut with a mango and tomato salad</t>
-  </si>
-  <si>
-    <t>Margherita pizza</t>
-  </si>
-  <si>
-    <t>Swiss and horseradish sandwich</t>
-  </si>
-  <si>
-    <t>Goats cheese salad with walnuts, radish and blood orange</t>
-  </si>
-  <si>
-    <t>Glazed short ribs</t>
-  </si>
-  <si>
-    <t>Memphis-style beef short ribs</t>
-  </si>
-  <si>
-    <t>Fish tacos with hot sauce</t>
-  </si>
-  <si>
-    <t>Fenalår (salted cured lamb)</t>
-  </si>
-  <si>
-    <t>Chicken sausages with creamy mash</t>
-  </si>
-  <si>
-    <t>Lobster</t>
-  </si>
-  <si>
-    <t>Pot roasted artichokes</t>
-  </si>
-  <si>
-    <t>Hickory smoked ham</t>
-  </si>
-  <si>
-    <t>Pan seared venison fillet with juniper sauce</t>
-  </si>
-  <si>
-    <t>Summer fruit salad</t>
-  </si>
-  <si>
-    <t>Caramel toffee cake</t>
-  </si>
-  <si>
-    <t>Goats cheese salad</t>
-  </si>
-  <si>
-    <t>Yuzu cheesecake</t>
-  </si>
-  <si>
-    <t>Sweet filled dumplings</t>
-  </si>
-  <si>
-    <t>Strawberry and rhubarb pie</t>
-  </si>
-  <si>
-    <t>Shortbread cookies</t>
-  </si>
-  <si>
-    <t>Raspberry chocolate torte</t>
-  </si>
-  <si>
-    <t>Key lime pie</t>
-  </si>
-  <si>
-    <t>Clootie dumpling</t>
-  </si>
-  <si>
-    <t>Aromatic korma curry with lemon and garlic naan</t>
-  </si>
-  <si>
-    <t>Chocolate milk shake</t>
-  </si>
-  <si>
-    <t>Mint chocloate ice cream</t>
-  </si>
-  <si>
-    <t>Fresh berry crisp tart</t>
-  </si>
-  <si>
-    <t>Sharp cheddar cheese and onion/ raisin chutney</t>
-  </si>
-  <si>
-    <t>Pistachio cake</t>
-  </si>
-  <si>
-    <t>Chocolate cake</t>
-  </si>
-  <si>
-    <t>Chocolate orange brownies</t>
-  </si>
-  <si>
-    <t>Lemon pound cake with a ice sugar glaze</t>
-  </si>
-  <si>
-    <t>Krumkake with lingonberry jam</t>
-  </si>
-  <si>
-    <t>Caramel and banana meringue pie</t>
-  </si>
-  <si>
-    <t>Ginger and orange cookies</t>
-  </si>
-  <si>
-    <t>Lamb chops with caramelised figs</t>
-  </si>
-  <si>
-    <t>Rocky Road</t>
-  </si>
-  <si>
-    <t>Apricot coconut cake</t>
-  </si>
-  <si>
-    <t>Banana split</t>
-  </si>
-  <si>
-    <t>Creamy lemon bar doused in powdered sugar</t>
-  </si>
-  <si>
-    <t>Peanut brittle</t>
+    <t>celsius</t>
+  </si>
+  <si>
+    <t>Soured naturally using the kettle souring technique, Yuzu fruit: 50g at middle, Yuzu juice: 200ml at FV</t>
+  </si>
+  <si>
+    <t>Honey: 62.5g at End (WP), Coriander Seeds: 8.5g at 45mins</t>
+  </si>
+  <si>
+    <t>Aged in whisky barrels with raspberries, tayberries and blackberries</t>
+  </si>
+  <si>
+    <t>Scottish Heather Honey: 62.5g at middle, Add honey during the boil. After fermentation, age in a Scottish whisky cask</t>
+  </si>
+  <si>
+    <t>See honey and lactose additions</t>
+  </si>
+  <si>
+    <t>Barrel aged and blended with Anarchist Alchemist</t>
+  </si>
+  <si>
+    <t>White cane sugar: 150g at middle</t>
+  </si>
+  <si>
+    <t>Infusion of lingonberries alongside the dry hops, Cranberry Juice: 5.5g at 30mins, Lingonberries: 10g Twist</t>
+  </si>
+  <si>
+    <t>Part-aged in oak barrels, finished with champagne yeast</t>
+  </si>
+  <si>
+    <t>Oak chips soaked in Islay whisky 50g</t>
+  </si>
+  <si>
+    <t>Nettles: 25g at end, Juniper: 25g at end</t>
+  </si>
+  <si>
+    <t>Crushed juniper berries: 12.5g, Lemon peel: 18.8g</t>
   </si>
 </sst>
 </file>
@@ -695,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,8 +561,41 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -729,22 +603,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
+        <v>42</v>
+      </c>
+      <c r="F2">
+        <v>75</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -752,22 +629,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -775,22 +652,55 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>83</v>
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>72</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>78</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,22 +708,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -821,22 +731,25 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>70</v>
+      </c>
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -844,22 +757,28 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>75</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -867,22 +786,28 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>87</v>
+        <v>42</v>
+      </c>
+      <c r="F8">
+        <v>105</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -890,22 +815,25 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" t="s">
-        <v>88</v>
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>75</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -913,22 +841,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>89</v>
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>105</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -936,22 +870,25 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>90</v>
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>75</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -959,22 +896,28 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>91</v>
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <v>75</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -982,22 +925,22 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1005,22 +948,25 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" t="s">
-        <v>93</v>
+        <v>42</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1028,22 +974,25 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1051,22 +1000,28 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" t="s">
-        <v>95</v>
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>40</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1074,22 +1029,25 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" t="s">
-        <v>96</v>
+        <v>42</v>
+      </c>
+      <c r="F17">
+        <v>35</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1097,22 +1055,28 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" t="s">
-        <v>97</v>
+        <v>42</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1120,22 +1084,25 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>98</v>
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>75</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1143,22 +1110,28 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" t="s">
-        <v>99</v>
+        <v>42</v>
+      </c>
+      <c r="F20">
+        <v>90</v>
       </c>
       <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,22 +1139,25 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>100</v>
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>60</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1189,22 +1165,25 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" t="s">
-        <v>101</v>
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <v>75</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1212,22 +1191,28 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" t="s">
-        <v>102</v>
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <v>90</v>
       </c>
       <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1235,22 +1220,28 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>103</v>
+        <v>42</v>
+      </c>
+      <c r="F24">
+        <v>75</v>
       </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1258,22 +1249,28 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" t="s">
-        <v>104</v>
+        <v>42</v>
+      </c>
+      <c r="F25">
+        <v>75</v>
       </c>
       <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1281,19 +1278,25 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="D26">
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" t="s">
-        <v>105</v>
+        <v>42</v>
+      </c>
+      <c r="F26">
+        <v>75</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
